--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_30_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120134.3443783467</v>
+        <v>21411965.95992479</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120134.3443783467</v>
+        <v>21411965.95992479</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56180.46227155151</v>
+        <v>7117399.844550687</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56180.46227155151</v>
+        <v>7117399.844550687</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493987337.529501</v>
+        <v>52581112.23539413</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11633.74580228407</v>
+        <v>1157347.747346258</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22748.18011510294</v>
+        <v>2232027.798453496</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33878.26151390301</v>
+        <v>3306707.849560734</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45670.70311741492</v>
+        <v>4267383.74527551</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56816.88504629294</v>
+        <v>5350206.950339356</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67911.78386738179</v>
+        <v>6430093.676428521</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78950.40995163261</v>
+        <v>7512022.863798568</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89926.44143344811</v>
+        <v>8593779.596408844</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101718.3730520892</v>
+        <v>9555817.092007997</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112838.4131288029</v>
+        <v>10646125.19869049</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123454.2656330773</v>
+        <v>11796759.44502097</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134066.3516276002</v>
+        <v>12942473.86894286</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144663.8900597325</v>
+        <v>14088188.29286476</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156413.0261147007</v>
+        <v>15033663.80054645</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170553.274923212</v>
+        <v>15712747.551947</v>
       </c>
     </row>
   </sheetData>
